--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32949.76975971543</v>
+        <v>6557004.18218337</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32949.76975971543</v>
+        <v>6557004.18218337</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6505.851228952743</v>
+        <v>392124.1045308824</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6505.851228952743</v>
+        <v>392124.1045308824</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960126186.9355618</v>
+        <v>40273310.00759871</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9353.777249356266</v>
+        <v>1040377.423182271</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17178.81728267369</v>
+        <v>1827488.073390142</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25003.8573159911</v>
+        <v>2614598.723598015</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33238.22424291581</v>
+        <v>3375522.49223918</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41157.65620715643</v>
+        <v>4162392.423569776</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49077.0881713966</v>
+        <v>4949262.354900452</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56996.52013563677</v>
+        <v>5736132.286231128</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64915.95209987694</v>
+        <v>6523002.217561803</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72990.25485549957</v>
+        <v>7280794.397099529</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81100.19397475968</v>
+        <v>8045678.21300077</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89064.83618065789</v>
+        <v>8839916.464560738</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96993.66129433461</v>
+        <v>9627027.114768615</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104922.4864080113</v>
+        <v>10414137.76497649</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112841.7376436669</v>
+        <v>11200971.73131859</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121076.1045705916</v>
+        <v>11961895.49995977</v>
       </c>
     </row>
   </sheetData>
